--- a/templates/community/RPTU/RPTU_FS_SamplePreparation.xlsx
+++ b/templates/community/RPTU/RPTU_FS_SamplePreparation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB527652-EB75-43F5-AA1D-C664FBD7EFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915D2F4-712E-443A-9058-0E0B0FCECA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
   </bookViews>
   <sheets>
     <sheet name="ProteomicsSamplePrep" sheetId="2" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{66AF64B5-CC67-4C4D-9B12-674CFBB23FCA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=73144f25-aa6a-4d9f-809d-f8d1bf979a63</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{F7D6D9D4-8DCA-4106-901A-65F4FC6A2FCC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{A34B811A-6683-4342-884C-750A3769C970}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{EF34375A-9338-4D3F-A87D-7629AF870BDE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{3147A35B-D2D3-4E38-8784-CE236709D5A4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{D34D9B55-5596-4BDA-888C-F90764B5C96F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{8D2CF15B-35F5-4160-A601-7363421A155B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{16FA8ACB-3A3A-43E0-B498-E5DDF805C735}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{419A5E60-44B8-48CC-81F4-46698431DD05}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="130">
   <si>
     <t>Source Name</t>
   </si>
@@ -464,15 +464,6 @@
   </si>
   <si>
     <t>RPTU - MBS</t>
-  </si>
-  <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
   </si>
   <si>
     <t>Algae</t>
@@ -534,9 +525,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00\ &quot;microliter&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,12 +558,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -728,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -774,8 +759,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -830,10 +815,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -885,9 +870,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -925,7 +910,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1031,7 +1016,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1173,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1249,51 +1234,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65E01F-1D80-4995-9843-5E2B010CD70D}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="28" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="44.28515625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="40.44140625" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1488,7 +1473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1553,7 +1538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1618,7 +1603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +1668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1748,7 +1733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1878,7 +1863,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1943,7 +1928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -2008,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -2073,7 +2058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2138,7 +2123,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2203,7 +2188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2268,7 +2253,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2333,7 +2318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2398,7 +2383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2593,7 +2578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2788,7 +2773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2853,7 +2838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2918,7 +2903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +2968,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3048,7 +3033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3113,7 +3098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3243,7 +3228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3308,7 +3293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -3373,7 +3358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3438,7 +3423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
@@ -3465,7 +3450,7 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
     </row>
-    <row r="37" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
@@ -3536,7 +3521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
@@ -3579,17 +3564,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE289519-D0D2-4180-828E-253210DAAC7B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
@@ -3597,15 +3582,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>84</v>
       </c>
@@ -3613,15 +3598,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>86</v>
       </c>
@@ -3629,79 +3614,73 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>95</v>
       </c>
@@ -3715,103 +3694,103 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="17"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>108</v>
       </c>

--- a/templates/community/RPTU/RPTU_FS_SamplePreparation.xlsx
+++ b/templates/community/RPTU/RPTU_FS_SamplePreparation.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915D2F4-712E-443A-9058-0E0B0FCECA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F496AF-D628-42F0-BD3F-5713F1898550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
   </bookViews>
   <sheets>
     <sheet name="ProteomicsSamplePrep" sheetId="2" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
